--- a/doc/data/042-P_consommables.xlsx
+++ b/doc/data/042-P_consommables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicbenitez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2ndY\Projets\306-Scrum\NAKZ-306\doc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>conName</t>
   </si>
@@ -141,6 +138,12 @@
   </si>
   <si>
     <t>33XL Claria Premium Multipack (Y,M,C,CF)</t>
+  </si>
+  <si>
+    <t>idConsumable</t>
+  </si>
+  <si>
+    <t>idBrand</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -479,466 +482,565 @@
     <col min="5" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D2" s="1">
+        <v>128</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>128</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D3" s="1">
+        <v>99.8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1">
+        <v>112</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>117</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>102</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>112</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>86.5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>99.6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>47.1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>117</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>479</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1">
+        <v>126</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1">
+        <v>106</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
         <v>102</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1">
+        <v>157</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1">
+        <v>158</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1">
+        <v>34.6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1">
         <v>107</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>107</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>107</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>89.6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>89.7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1">
-        <v>86.5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1">
-        <v>99.6</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
-        <v>51.6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1">
-        <v>47.1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1">
-        <v>479</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1">
-        <v>126</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1">
-        <v>31.4</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1">
-        <v>14.7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1">
-        <v>20.3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1">
-        <v>57.1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1">
-        <v>106</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1">
-        <v>102</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>14</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="1">
-        <v>157</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>15</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="1">
-        <v>158</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>16</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1">
-        <v>98.3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="1">
-        <v>34.6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1">
-        <v>107</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="1">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>19</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1">
-        <v>98.3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1">
-        <v>89.3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/doc/data/042-P_consommables.xlsx
+++ b/doc/data/042-P_consommables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2ndY\Projets\306-Scrum\NAKZ-306\doc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\NAKZ-306\doc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>conName</t>
   </si>
@@ -144,6 +144,33 @@
   </si>
   <si>
     <t>idBrand</t>
+  </si>
+  <si>
+    <t>conBrand</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>Kyocera</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Epson</t>
+  </si>
+  <si>
+    <t>Xerox</t>
+  </si>
+  <si>
+    <t>OKI</t>
+  </si>
+  <si>
+    <t>Samsung</t>
   </si>
 </sst>
 </file>
@@ -467,22 +494,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="2"/>
-    <col min="2" max="2" width="39.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2"/>
-    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="2"/>
+    <col min="2" max="3" width="39.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="2"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -490,16 +517,19 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -507,16 +537,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>128</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -524,16 +557,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>99.8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -541,16 +577,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>112</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -558,16 +597,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>117</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -575,16 +617,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>102</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -592,16 +637,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>107</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -609,16 +657,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>107</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -626,16 +677,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>107</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -643,16 +697,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>61</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -660,16 +717,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>89.6</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -677,16 +737,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>89.7</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -694,16 +757,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>86.5</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -711,16 +777,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>99.6</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -728,16 +797,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>51.6</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -745,16 +817,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>12.5</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -762,16 +837,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>47.1</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -779,16 +857,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>479</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -796,16 +877,19 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>126</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -813,16 +897,19 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>31.4</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -830,16 +917,19 @@
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>14.7</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -847,16 +937,19 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>20.3</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -864,16 +957,19 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>57.1</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -881,16 +977,19 @@
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>106</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -898,16 +997,19 @@
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>102</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -915,16 +1017,19 @@
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>157</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -932,16 +1037,19 @@
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>158</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -949,16 +1057,19 @@
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>98.3</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -966,16 +1077,19 @@
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>34.6</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -983,16 +1097,19 @@
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>107</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1000,16 +1117,19 @@
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>26</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1017,16 +1137,19 @@
         <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>98.3</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1034,16 +1157,20 @@
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>89.3</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/data/042-P_consommables.xlsx
+++ b/doc/data/042-P_consommables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\NAKZ-306\doc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2ndY\Projets\306-Scrum\NAKZ-306\doc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +189,12 @@
       <sz val="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -206,14 +212,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,27 +520,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="2"/>
-    <col min="2" max="3" width="39.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="2"/>
     <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -529,14 +553,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -549,14 +573,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -569,14 +593,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -589,14 +613,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -609,14 +633,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -629,14 +653,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -649,14 +673,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -669,14 +693,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -689,14 +713,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -709,14 +733,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -729,14 +753,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -749,14 +773,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -769,14 +793,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -789,14 +813,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -809,14 +833,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -829,14 +853,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -849,14 +873,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -869,14 +893,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -889,14 +913,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -909,14 +933,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -929,14 +953,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -949,14 +973,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -969,14 +993,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -989,14 +1013,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1009,14 +1033,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1029,14 +1053,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1049,14 +1073,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1069,14 +1093,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1089,14 +1113,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1109,14 +1133,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>18</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1129,14 +1153,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1149,14 +1173,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>20</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="1" t="s">
